--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -5,23 +5,23 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A644715D-634B-4200-BE2F-9AD9ACF7E867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA33089-A37E-4C40-8A7C-09A5BA1E968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
-    <sheet name="GPIO Digital Input" sheetId="2" r:id="rId2"/>
-    <sheet name="GPIO Digital Output" sheetId="3" r:id="rId3"/>
+    <sheet name="GPIO Digital Output" sheetId="3" r:id="rId2"/>
+    <sheet name="GPIO Digital Input" sheetId="2" r:id="rId3"/>
     <sheet name="PWM" sheetId="4" r:id="rId4"/>
     <sheet name="ADC" sheetId="6" r:id="rId5"/>
     <sheet name="UART-USART" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GPIO Digital Input'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GPIO Digital Input'!$A$2:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'UART-USART'!$A$2:$AF$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>Pin's Name</t>
   </si>
@@ -97,24 +97,6 @@
     <t>PWM</t>
   </si>
   <si>
-    <t>RB6</t>
-  </si>
-  <si>
-    <t>PGC</t>
-  </si>
-  <si>
-    <t>PGD</t>
-  </si>
-  <si>
-    <t>RB7</t>
-  </si>
-  <si>
-    <t>RE3</t>
-  </si>
-  <si>
-    <t>MCLR</t>
-  </si>
-  <si>
     <t>RA3</t>
   </si>
   <si>
@@ -127,18 +109,6 @@
     <t>Relay</t>
   </si>
   <si>
-    <t>RA7</t>
-  </si>
-  <si>
-    <t>OSC1</t>
-  </si>
-  <si>
-    <t>RA6</t>
-  </si>
-  <si>
-    <t>OSC2</t>
-  </si>
-  <si>
     <t>RC1</t>
   </si>
   <si>
@@ -262,12 +232,6 @@
     <t>UART-USART</t>
   </si>
   <si>
-    <t>TestPin</t>
-  </si>
-  <si>
-    <t>UART_TX</t>
-  </si>
-  <si>
     <t>Hardware flow control</t>
   </si>
   <si>
@@ -343,15 +307,6 @@
     <t>DMA</t>
   </si>
   <si>
-    <t>1,43,65,76</t>
-  </si>
-  <si>
-    <t>USART Pin</t>
-  </si>
-  <si>
-    <t>USART</t>
-  </si>
-  <si>
     <t>Open drain</t>
   </si>
   <si>
@@ -398,13 +353,16 @@
   </si>
   <si>
     <t>Odd</t>
+  </si>
+  <si>
+    <t>Trigger Signal software/event signal/hardware (S/E/H)2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,11 +383,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ArialMT"/>
     </font>
     <font>
       <b/>
@@ -475,6 +428,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -588,39 +549,38 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -628,7 +588,14 @@
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -663,10 +630,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}" name="Table3" displayName="Table3" ref="A2:D23" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:D23" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D22">
-    <sortCondition ref="A3:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}" name="Table3" displayName="Table3" ref="A2:D17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:D17" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D16">
+    <sortCondition ref="A3:A16"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A81F9EE8-F660-4697-9996-3B100F92A70B}" name="Pin's num"/>
@@ -675,6 +642,30 @@
     <tableColumn id="4" xr3:uid="{D15DCE28-19C1-4E3A-878D-56B96C75F678}" name="Pin's feature "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}" name="Table8" displayName="Table8" ref="A2:O24" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="A2:O24" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{5C5A58B1-63D2-4536-8983-EE8382A90749}" name="Pin's num"/>
+    <tableColumn id="2" xr3:uid="{52999488-3FCF-47BC-B3B5-CF7C5F92A960}" name="Pin's Name"/>
+    <tableColumn id="3" xr3:uid="{CED587F5-DEA3-4D05-B22F-8B92414A6288}" name="Pin's user name"/>
+    <tableColumn id="4" xr3:uid="{60A8C48F-FA10-4E3D-AE36-380E5F2B4979}" name="Periphelra"/>
+    <tableColumn id="5" xr3:uid="{C0DD6ECA-5FE1-4633-A069-DFC25965236F}" name="Trigger Signal software/event signal/hardware (S/E/H)"/>
+    <tableColumn id="6" xr3:uid="{0D38C018-7C72-42E3-915C-406AD8FA313D}" name="Resolution (bit)"/>
+    <tableColumn id="7" xr3:uid="{8D3C633E-1C4A-483C-AF71-8E1D95839935}" name="Interrupt/Polling"/>
+    <tableColumn id="8" xr3:uid="{7F41C398-F921-4CAA-B15A-F9343E903A12}" name="Single/continuous conversion"/>
+    <tableColumn id="9" xr3:uid="{138112C5-236E-403B-8D83-355A987EB578}" name="Scan mode"/>
+    <tableColumn id="10" xr3:uid="{CCB46E50-C141-447C-92D7-809B8F45A49C}" name="sampling time"/>
+    <tableColumn id="11" xr3:uid="{26639D5C-F0D1-4675-8E95-23C96F845B6C}" name="Trigger Signal software/event signal/hardware (S/E/H)2"/>
+    <tableColumn id="12" xr3:uid="{1FBD4041-F06F-4DA6-9091-77D4800BA5D8}" name="Discontinuous mode"/>
+    <tableColumn id="13" xr3:uid="{43379FD5-F4B3-435B-8DD9-A3E94D5DF788}" name="Dual/Triple mode"/>
+    <tableColumn id="14" xr3:uid="{93EEB647-4994-420B-A710-215FC619B643}" name="DMA - Direct memory access (Y/N)"/>
+    <tableColumn id="15" xr3:uid="{0032CAF7-E742-4203-8FF6-5E6E03CC2518}" name="Fequence (Hz)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -944,13 +935,13 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -982,88 +973,88 @@
     <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1074,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1091,9 +1082,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1102,26 +1093,26 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -1130,175 +1121,77 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1354,350 +1247,614 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D753BDA-7C29-4ECB-9A7C-E1BC8A53D622}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" cm="1">
+        <f t="array" ref="A3:C9">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output","")</f>
+        <v>25</v>
+      </c>
+      <c r="B3" t="str">
+        <v>RE0</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Relay</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>35</v>
+      </c>
+      <c r="B4" t="str">
+        <v>RC1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>DS1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5" t="str">
+        <v>RC2</v>
+      </c>
+      <c r="C5" t="str">
+        <v>SHCP</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>37</v>
+      </c>
+      <c r="B6" t="str">
+        <v>RC3</v>
+      </c>
+      <c r="C6" t="str">
+        <v>STCP</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" t="str">
+        <v>RC4</v>
+      </c>
+      <c r="C7" t="str">
+        <v>LED1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>43</v>
+      </c>
+      <c r="B8" t="str">
+        <v>RC5</v>
+      </c>
+      <c r="C8" t="str">
+        <v>LED2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9" t="str">
+        <v>RC6</v>
+      </c>
+      <c r="C9" t="str">
+        <v>LED3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79A97F8-9BB3-49A8-9A83-B42ED95C8455}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" thickBot="1">
-      <c r="A1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" cm="1">
-        <f t="array" ref="A3:C8">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C23,'GPIO DESCRIPTION'!D3:D23="GPIO Digital Input")</f>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" cm="1">
+        <f t="array" ref="A3:C8">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="5" t="str">
         <v>RD4</v>
       </c>
-      <c r="C3" s="6" t="str">
+      <c r="C3" s="5" t="str">
         <v>NUT1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="7">
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="str">
+      <c r="B4" s="6" t="str">
         <v>RD5</v>
       </c>
-      <c r="C4" s="7" t="str">
+      <c r="C4" s="6" t="str">
         <v>NUT2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6">
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="5" t="str">
         <v>RD6</v>
       </c>
-      <c r="C5" s="6" t="str">
+      <c r="C5" s="5" t="str">
         <v>NUT3</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="7">
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="6" t="str">
         <v>RD7</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="6" t="str">
         <v>NUT4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6">
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="5" t="str">
         <v>RB0</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="5" t="str">
         <v>zero</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="7">
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="6" t="str">
         <v>RA3</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="6" t="str">
         <v>Van</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>IF(A9="","")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f t="shared" ref="D10:D36" si="0">IF(A10="","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" cm="1">
+        <f t="array" ref="J14:L20">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output")</f>
+        <v>25</v>
+      </c>
+      <c r="K14" t="str">
+        <v>RE0</v>
+      </c>
+      <c r="L14" t="str">
+        <v>Relay</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>35</v>
+      </c>
+      <c r="K15" t="str">
+        <v>RC1</v>
+      </c>
+      <c r="L15" t="str">
+        <v>DS1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="4:4">
+      <c r="J16">
+        <v>36</v>
+      </c>
+      <c r="K16" t="str">
+        <v>RC2</v>
+      </c>
+      <c r="L16" t="str">
+        <v>SHCP</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="4:4">
+      <c r="G17" cm="1">
+        <f t="array" ref="G17:I22">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input")</f>
+        <v>2</v>
+      </c>
+      <c r="H17" t="str">
+        <v>RD4</v>
+      </c>
+      <c r="I17" t="str">
+        <v>NUT1</v>
+      </c>
+      <c r="J17">
+        <v>37</v>
+      </c>
+      <c r="K17" t="str">
+        <v>RC3</v>
+      </c>
+      <c r="L17" t="str">
+        <v>STCP</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="4:4">
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="str">
+        <v>RD5</v>
+      </c>
+      <c r="I18" t="str">
+        <v>NUT2</v>
+      </c>
+      <c r="J18">
+        <v>42</v>
+      </c>
+      <c r="K18" t="str">
+        <v>RC4</v>
+      </c>
+      <c r="L18" t="str">
+        <v>LED1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="4:4">
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="str">
+        <v>RD6</v>
+      </c>
+      <c r="I19" t="str">
+        <v>NUT3</v>
+      </c>
+      <c r="J19">
+        <v>43</v>
+      </c>
+      <c r="K19" t="str">
+        <v>RC5</v>
+      </c>
+      <c r="L19" t="str">
+        <v>LED2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="4:4">
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20" t="str">
+        <v>RD7</v>
+      </c>
+      <c r="I20" t="str">
+        <v>NUT4</v>
+      </c>
+      <c r="J20">
+        <v>44</v>
+      </c>
+      <c r="K20" t="str">
+        <v>RC6</v>
+      </c>
+      <c r="L20" t="str">
+        <v>LED3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="4:4">
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21" t="str">
+        <v>RB0</v>
+      </c>
+      <c r="I21" t="str">
+        <v>zero</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="4:4">
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22" t="str">
+        <v>RA3</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Van</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:4">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1705,7 +1862,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{E79A97F8-9BB3-49A8-9A83-B42ED95C8455}"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0463820B-1CC9-4AD8-8557-D75A2ECB0B44}">
       <formula1>"Pin's feature,GPIO Digital input,GPIO Digital Output,PWM,ADC,#NC, Pin's feature, "</formula1>
     </dataValidation>
@@ -1715,7 +1872,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
       <formula1>"Foating, Pull-up,Pull-down, Changeable,#NC"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17 F19:F1048576 H16" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
       <formula1>"Low, High, #NC,Changeable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1724,118 +1881,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D753BDA-7C29-4ECB-9A7C-E1BC8A53D622}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="18.75" thickTop="1" thickBot="1">
-      <c r="A2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFB66BB-D7E4-458E-871F-08E6199DD7F5}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:F4"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B3" s="15" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" cm="1">
+        <f t="array" ref="A3:C3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="PWM","")</f>
+        <v>9</v>
+      </c>
+      <c r="B3" t="str">
+        <v>RB1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>PWM</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24:L30">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output")</f>
+        <v>25</v>
+      </c>
+      <c r="K24" t="str">
+        <v>RE0</v>
+      </c>
+      <c r="L24" t="str">
+        <v>Relay</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>35</v>
+      </c>
+      <c r="K25" t="str">
+        <v>RC1</v>
+      </c>
+      <c r="L25" t="str">
+        <v>DS1</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>36</v>
+      </c>
+      <c r="K26" t="str">
+        <v>RC2</v>
+      </c>
+      <c r="L26" t="str">
+        <v>SHCP</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>37</v>
+      </c>
+      <c r="K27" t="str">
+        <v>RC3</v>
+      </c>
+      <c r="L27" t="str">
+        <v>STCP</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>42</v>
+      </c>
+      <c r="K28" t="str">
+        <v>RC4</v>
+      </c>
+      <c r="L28" t="str">
+        <v>LED1</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>43</v>
+      </c>
+      <c r="K29" t="str">
+        <v>RC5</v>
+      </c>
+      <c r="L29" t="str">
+        <v>LED2</v>
+      </c>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J30">
         <v>44</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>45</v>
+      <c r="K30" t="str">
+        <v>RC6</v>
+      </c>
+      <c r="L30" t="str">
+        <v>LED3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1846,76 +2045,111 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:L4"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="59.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12">
-      <c r="B3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>41</v>
       </c>
+      <c r="M2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str" cm="1">
+        <f t="array" ref="A3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:L3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1923,11 +2157,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA571890-E7B3-444C-80C3-9C6B747497B2}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -1963,199 +2197,184 @@
     <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-    </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1">
-      <c r="A2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="V2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="X3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Z3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="AA3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="AB3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="11" t="s">
+      <c r="AC3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="AD3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="AE3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="U2" s="11" t="s">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="str" cm="1">
+        <f t="array" ref="A4">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="UART-USART","")</f>
+        <v/>
+      </c>
+      <c r="D4" t="s">
         <v>76</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
-      <c r="H3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="6" cm="1">
-        <f t="array" ref="A4:C5">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C23,'GPIO DESCRIPTION'!D3:D23="UART-USART")</f>
-        <v>99</v>
-      </c>
-      <c r="B4" t="str">
-        <v>TestPin</v>
-      </c>
-      <c r="C4" t="str">
-        <v>UART_TX</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
       </c>
       <c r="O4">
         <v>0.5</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="str">
-        <v>1,43,65,76</v>
-      </c>
-      <c r="B5" t="str">
-        <v>USART Pin</v>
-      </c>
-      <c r="C5" t="str">
-        <v>USART</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2170,59 +2389,59 @@
         <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="V5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="W5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="X5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Y5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Z5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AA5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AB5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AC5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AD5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="AE5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="H7" s="9"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AF2" xr:uid="{DA571890-E7B3-444C-80C3-9C6B747497B2}">

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA33089-A37E-4C40-8A7C-09A5BA1E968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78373B3F-471F-4078-B1F2-681578ABC56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GPIO Digital Input'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GPIO Digital Output'!$F$1:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'UART-USART'!$A$2:$AF$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
   <si>
     <t>Pin's Name</t>
   </si>
@@ -172,9 +173,6 @@
     <t>DMA - Direct memory access (Y/N)</t>
   </si>
   <si>
-    <t>Trigger Signal software/event signal/hardware (S/E/H)</t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
@@ -217,18 +215,6 @@
     <t>Floating/Pull-up/Down</t>
   </si>
   <si>
-    <t>polling</t>
-  </si>
-  <si>
-    <t>interrupt</t>
-  </si>
-  <si>
-    <t>GPIO Description - PIC16f887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pin's feature,GPIO Digital Input,GPIO Digital Output,PWM,ADC,#NC, Pin's feature, Timer, UART-USART, SPI, I2C, DAC, Input capture,Output compare </t>
-  </si>
-  <si>
     <t>UART-USART</t>
   </si>
   <si>
@@ -331,38 +317,41 @@
     <t>Periphelra</t>
   </si>
   <si>
-    <t>Active Low/High (L/H)</t>
-  </si>
-  <si>
-    <t>Open drain/pull-up/pull-down (O/U/D)</t>
-  </si>
-  <si>
     <t>Software/Hardware</t>
   </si>
   <si>
     <t>Interrupt</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>8 bit</t>
-  </si>
-  <si>
-    <t>Odd</t>
-  </si>
-  <si>
-    <t>Trigger Signal software/event signal/hardware (S/E/H)2</t>
+    <t>GPIO Description - SCH wash</t>
+  </si>
+  <si>
+    <t>Trigger Signal software/event signal/hardware</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger Signal software/event signal/hardware </t>
+  </si>
+  <si>
+    <t>DMA - Direct memory access</t>
+  </si>
+  <si>
+    <t>Open drain/pull-up/pull-down</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>LOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,30 +369,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,14 +399,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,58 +415,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor theme="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -546,49 +469,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thick">
@@ -597,22 +536,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -630,40 +558,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}" name="Table3" displayName="Table3" ref="A2:D17" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}" name="Table3" displayName="Table3" ref="A2:D17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 2" dataCellStyle="Output">
   <autoFilter ref="A2:D17" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D16">
     <sortCondition ref="A3:A16"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A81F9EE8-F660-4697-9996-3B100F92A70B}" name="Pin's num"/>
-    <tableColumn id="2" xr3:uid="{1CBDFF3B-F9A2-4AAE-8B7B-8F65F6143DFA}" name="Pin's Name"/>
-    <tableColumn id="3" xr3:uid="{F70C26DC-50B0-4E85-BFA0-737199EC209E}" name="Pin's user name"/>
-    <tableColumn id="4" xr3:uid="{D15DCE28-19C1-4E3A-878D-56B96C75F678}" name="Pin's feature "/>
+    <tableColumn id="1" xr3:uid="{A81F9EE8-F660-4697-9996-3B100F92A70B}" name="Pin's num" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{1CBDFF3B-F9A2-4AAE-8B7B-8F65F6143DFA}" name="Pin's Name" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{F70C26DC-50B0-4E85-BFA0-737199EC209E}" name="Pin's user name" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{D15DCE28-19C1-4E3A-878D-56B96C75F678}" name="Pin's feature " dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}" name="Table8" displayName="Table8" ref="A2:O24" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}" name="Table8" displayName="Table8" ref="A2:O24" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 2" dataCellStyle="Output">
   <autoFilter ref="A2:O24" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5C5A58B1-63D2-4536-8983-EE8382A90749}" name="Pin's num"/>
-    <tableColumn id="2" xr3:uid="{52999488-3FCF-47BC-B3B5-CF7C5F92A960}" name="Pin's Name"/>
-    <tableColumn id="3" xr3:uid="{CED587F5-DEA3-4D05-B22F-8B92414A6288}" name="Pin's user name"/>
-    <tableColumn id="4" xr3:uid="{60A8C48F-FA10-4E3D-AE36-380E5F2B4979}" name="Periphelra"/>
-    <tableColumn id="5" xr3:uid="{C0DD6ECA-5FE1-4633-A069-DFC25965236F}" name="Trigger Signal software/event signal/hardware (S/E/H)"/>
-    <tableColumn id="6" xr3:uid="{0D38C018-7C72-42E3-915C-406AD8FA313D}" name="Resolution (bit)"/>
-    <tableColumn id="7" xr3:uid="{8D3C633E-1C4A-483C-AF71-8E1D95839935}" name="Interrupt/Polling"/>
-    <tableColumn id="8" xr3:uid="{7F41C398-F921-4CAA-B15A-F9343E903A12}" name="Single/continuous conversion"/>
-    <tableColumn id="9" xr3:uid="{138112C5-236E-403B-8D83-355A987EB578}" name="Scan mode"/>
-    <tableColumn id="10" xr3:uid="{CCB46E50-C141-447C-92D7-809B8F45A49C}" name="sampling time"/>
-    <tableColumn id="11" xr3:uid="{26639D5C-F0D1-4675-8E95-23C96F845B6C}" name="Trigger Signal software/event signal/hardware (S/E/H)2"/>
-    <tableColumn id="12" xr3:uid="{1FBD4041-F06F-4DA6-9091-77D4800BA5D8}" name="Discontinuous mode"/>
-    <tableColumn id="13" xr3:uid="{43379FD5-F4B3-435B-8DD9-A3E94D5DF788}" name="Dual/Triple mode"/>
-    <tableColumn id="14" xr3:uid="{93EEB647-4994-420B-A710-215FC619B643}" name="DMA - Direct memory access (Y/N)"/>
-    <tableColumn id="15" xr3:uid="{0032CAF7-E742-4203-8FF6-5E6E03CC2518}" name="Fequence (Hz)"/>
+    <tableColumn id="1" xr3:uid="{5C5A58B1-63D2-4536-8983-EE8382A90749}" name="Pin's num" dataCellStyle="Output"/>
+    <tableColumn id="2" xr3:uid="{52999488-3FCF-47BC-B3B5-CF7C5F92A960}" name="Pin's Name" dataCellStyle="Output"/>
+    <tableColumn id="3" xr3:uid="{CED587F5-DEA3-4D05-B22F-8B92414A6288}" name="Pin's user name" dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{60A8C48F-FA10-4E3D-AE36-380E5F2B4979}" name="Periphelra" dataCellStyle="Output"/>
+    <tableColumn id="5" xr3:uid="{C0DD6ECA-5FE1-4633-A069-DFC25965236F}" name="Trigger Signal software/event signal/hardware " dataCellStyle="Output"/>
+    <tableColumn id="6" xr3:uid="{0D38C018-7C72-42E3-915C-406AD8FA313D}" name="Resolution (bit)" dataCellStyle="Output"/>
+    <tableColumn id="7" xr3:uid="{8D3C633E-1C4A-483C-AF71-8E1D95839935}" name="Interrupt/Polling" dataCellStyle="Output"/>
+    <tableColumn id="8" xr3:uid="{7F41C398-F921-4CAA-B15A-F9343E903A12}" name="Single/continuous conversion" dataCellStyle="Output"/>
+    <tableColumn id="9" xr3:uid="{138112C5-236E-403B-8D83-355A987EB578}" name="Scan mode" dataCellStyle="Output"/>
+    <tableColumn id="10" xr3:uid="{CCB46E50-C141-447C-92D7-809B8F45A49C}" name="sampling time" dataCellStyle="Output"/>
+    <tableColumn id="11" xr3:uid="{26639D5C-F0D1-4675-8E95-23C96F845B6C}" name="Trigger Signal software/event signal/hardware" dataCellStyle="Output"/>
+    <tableColumn id="12" xr3:uid="{1FBD4041-F06F-4DA6-9091-77D4800BA5D8}" name="Discontinuous mode" dataCellStyle="Output"/>
+    <tableColumn id="13" xr3:uid="{43379FD5-F4B3-435B-8DD9-A3E94D5DF788}" name="Dual/Triple mode" dataCellStyle="Output"/>
+    <tableColumn id="14" xr3:uid="{93EEB647-4994-420B-A710-215FC619B643}" name="DMA - Direct memory access" dataCellStyle="Output"/>
+    <tableColumn id="15" xr3:uid="{0032CAF7-E742-4203-8FF6-5E6E03CC2518}" name="Fequence (Hz)" dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -935,18 +863,18 @@
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -973,226 +901,253 @@
     <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D6" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D9" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1251,130 +1206,311 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="42.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" cm="1">
+        <f t="array" ref="A3:C10">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output","")</f>
+        <v>22</v>
+      </c>
+      <c r="B3" s="13" t="str">
+        <v>RA3</v>
+      </c>
+      <c r="C3" s="13" t="str">
+        <v>Van</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>25</v>
+      </c>
+      <c r="B4" s="13" t="str">
+        <v>RE0</v>
+      </c>
+      <c r="C4" s="13" t="str">
+        <v>Relay</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>35</v>
+      </c>
+      <c r="B5" s="13" t="str">
+        <v>RC1</v>
+      </c>
+      <c r="C5" s="13" t="str">
+        <v>DS1</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>36</v>
+      </c>
+      <c r="B6" s="13" t="str">
+        <v>RC2</v>
+      </c>
+      <c r="C6" s="13" t="str">
+        <v>SHCP</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>37</v>
+      </c>
+      <c r="B7" s="13" t="str">
+        <v>RC3</v>
+      </c>
+      <c r="C7" s="13" t="str">
+        <v>STCP</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>42</v>
+      </c>
+      <c r="B8" s="13" t="str">
+        <v>RC4</v>
+      </c>
+      <c r="C8" s="13" t="str">
+        <v>LED1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>43</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" cm="1">
-        <f t="array" ref="A3:C9">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output","")</f>
-        <v>25</v>
-      </c>
-      <c r="B3" t="str">
-        <v>RE0</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Relay</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>35</v>
-      </c>
-      <c r="B4" t="str">
-        <v>RC1</v>
-      </c>
-      <c r="C4" t="str">
-        <v>DS1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>36</v>
-      </c>
-      <c r="B5" t="str">
-        <v>RC2</v>
-      </c>
-      <c r="C5" t="str">
-        <v>SHCP</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>37</v>
-      </c>
-      <c r="B6" t="str">
-        <v>RC3</v>
-      </c>
-      <c r="C6" t="str">
-        <v>STCP</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>42</v>
-      </c>
-      <c r="B7" t="str">
-        <v>RC4</v>
-      </c>
-      <c r="C7" t="str">
-        <v>LED1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>43</v>
-      </c>
-      <c r="B8" t="str">
+      <c r="B9" s="13" t="str">
         <v>RC5</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C9" s="13" t="str">
         <v>LED2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>44</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" s="13" t="str">
         <v>RC6</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C10" s="13" t="str">
         <v>LED3</v>
       </c>
+      <c r="D10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F9" xr:uid="{8D753BDA-7C29-4ECB-9A7C-E1BC8A53D622}"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E2 E4:E1048576" xr:uid="{12CB44A5-E0AA-4D33-B439-C9FC398BAA13}">
+      <formula1>"High, Low, #NC, Changeable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F2 F4:F1048576" xr:uid="{5F79AC19-DEA5-416A-9166-AFD6574FBE50}">
+      <formula1>"Open drain, Pull-up, Pull-down,#NC, Changable"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="A1:D2 A11:D1048576 A3:C10 D4:D10" xr:uid="{1C84FC7B-A820-4CA5-8C24-F5DC41A2D845}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1384,453 +1520,320 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" cm="1">
-        <f t="array" ref="A3:C8">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" cm="1">
+        <f t="array" ref="A3:C7">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="13" t="str">
         <v>RD4</v>
       </c>
-      <c r="C3" s="5" t="str">
+      <c r="C3" s="13" t="str">
         <v>NUT1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="13" t="str">
         <v>RD5</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="13" t="str">
         <v>NUT2</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="13" t="str">
         <v>RD6</v>
       </c>
-      <c r="C5" s="5" t="str">
+      <c r="C5" s="13" t="str">
         <v>NUT3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" s="13" t="str">
         <v>RD7</v>
       </c>
-      <c r="C6" s="6" t="str">
+      <c r="C6" s="13" t="str">
         <v>NUT4</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
+      <c r="D6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="13" t="str">
         <v>RB0</v>
       </c>
-      <c r="C7" s="5" t="str">
+      <c r="C7" s="13" t="str">
         <v>zero</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>22</v>
-      </c>
-      <c r="B8" s="6" t="str">
-        <v>RA3</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <v>Van</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>IF(A9="","")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f t="shared" ref="D10:D36" si="0">IF(A10="","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" cm="1">
-        <f t="array" ref="J14:L20">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output")</f>
-        <v>25</v>
-      </c>
-      <c r="K14" t="str">
-        <v>RE0</v>
-      </c>
-      <c r="L14" t="str">
-        <v>Relay</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15">
-        <v>35</v>
-      </c>
-      <c r="K15" t="str">
-        <v>RC1</v>
-      </c>
-      <c r="L15" t="str">
-        <v>DS1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16">
-        <v>36</v>
-      </c>
-      <c r="K16" t="str">
-        <v>RC2</v>
-      </c>
-      <c r="L16" t="str">
-        <v>SHCP</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G17" cm="1">
-        <f t="array" ref="G17:I22">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input")</f>
-        <v>2</v>
-      </c>
-      <c r="H17" t="str">
-        <v>RD4</v>
-      </c>
-      <c r="I17" t="str">
-        <v>NUT1</v>
-      </c>
-      <c r="J17">
-        <v>37</v>
-      </c>
-      <c r="K17" t="str">
-        <v>RC3</v>
-      </c>
-      <c r="L17" t="str">
-        <v>STCP</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" t="str">
-        <v>RD5</v>
-      </c>
-      <c r="I18" t="str">
-        <v>NUT2</v>
-      </c>
-      <c r="J18">
-        <v>42</v>
-      </c>
-      <c r="K18" t="str">
-        <v>RC4</v>
-      </c>
-      <c r="L18" t="str">
-        <v>LED1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19" t="str">
-        <v>RD6</v>
-      </c>
-      <c r="I19" t="str">
-        <v>NUT3</v>
-      </c>
-      <c r="J19">
-        <v>43</v>
-      </c>
-      <c r="K19" t="str">
-        <v>RC5</v>
-      </c>
-      <c r="L19" t="str">
-        <v>LED2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20" t="str">
-        <v>RD7</v>
-      </c>
-      <c r="I20" t="str">
-        <v>NUT4</v>
-      </c>
-      <c r="J20">
-        <v>44</v>
-      </c>
-      <c r="K20" t="str">
-        <v>RC6</v>
-      </c>
-      <c r="L20" t="str">
-        <v>LED3</v>
-      </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21" t="str">
-        <v>RB0</v>
-      </c>
-      <c r="I21" t="str">
-        <v>zero</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22">
-        <v>22</v>
-      </c>
-      <c r="H22" t="str">
-        <v>RA3</v>
-      </c>
-      <c r="I22" t="str">
-        <v>Van</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1862,18 +1865,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{E79A97F8-9BB3-49A8-9A83-B42ED95C8455}"/>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0463820B-1CC9-4AD8-8557-D75A2ECB0B44}">
       <formula1>"Pin's feature,GPIO Digital input,GPIO Digital Output,PWM,ADC,#NC, Pin's feature, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576" xr:uid="{E2E14C99-5784-4A18-BFD5-B9A0C97F7F33}">
-      <formula1>"polling, interrupt"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
       <formula1>"Foating, Pull-up,Pull-down, Changeable,#NC"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17 F19:F1048576 H16" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
       <formula1>"Low, High, #NC,Changeable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="D1:D1048576" xr:uid="{61EFA305-4B4E-454F-B683-01550BF32ED0}">
+      <formula1>"Polling, Interrupt,#NC,Changable"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1886,157 +1889,340 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" cm="1">
+      <c r="I2" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" cm="1">
         <f t="array" ref="A3:C3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="PWM","")</f>
         <v>9</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="13" t="str">
         <v>RB1</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="13" t="str">
         <v>PWM</v>
       </c>
-    </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J24" cm="1">
-        <f t="array" ref="J24:L30">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output")</f>
-        <v>25</v>
-      </c>
-      <c r="K24" t="str">
-        <v>RE0</v>
-      </c>
-      <c r="L24" t="str">
-        <v>Relay</v>
-      </c>
-    </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J25">
-        <v>35</v>
-      </c>
-      <c r="K25" t="str">
-        <v>RC1</v>
-      </c>
-      <c r="L25" t="str">
-        <v>DS1</v>
-      </c>
-    </row>
-    <row r="26" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J26">
-        <v>36</v>
-      </c>
-      <c r="K26" t="str">
-        <v>RC2</v>
-      </c>
-      <c r="L26" t="str">
-        <v>SHCP</v>
-      </c>
-    </row>
-    <row r="27" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J27">
-        <v>37</v>
-      </c>
-      <c r="K27" t="str">
-        <v>RC3</v>
-      </c>
-      <c r="L27" t="str">
-        <v>STCP</v>
-      </c>
-    </row>
-    <row r="28" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <v>42</v>
-      </c>
-      <c r="K28" t="str">
-        <v>RC4</v>
-      </c>
-      <c r="L28" t="str">
-        <v>LED1</v>
-      </c>
-    </row>
-    <row r="29" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J29">
-        <v>43</v>
-      </c>
-      <c r="K29" t="str">
-        <v>RC5</v>
-      </c>
-      <c r="L29" t="str">
-        <v>LED2</v>
-      </c>
-    </row>
-    <row r="30" spans="10:12" x14ac:dyDescent="0.25">
-      <c r="J30">
-        <v>44</v>
-      </c>
-      <c r="K30" t="str">
-        <v>RC6</v>
-      </c>
-      <c r="L30" t="str">
-        <v>LED3</v>
-      </c>
+      <c r="D3" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{2B9369FE-A69C-4887-A89A-09407791B7CC}">
+      <formula1>"Hardware, Software, #NC, Changable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{80706739-4949-4C86-990D-8E52E8B8C3EB}">
+      <formula1>"Polling, Interruptm, #NC, Changeable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H1:H1048576" xr:uid="{4492F3E8-5E28-4C91-9312-2C2F8DCE2DA0}">
+      <formula1>"Y,N, #NC, CHhangeable"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I1:I1048576" xr:uid="{49612BD2-28C0-4C54-AC55-57EAF9120F3B}">
+      <formula1>"Software, Event, Hardware,#NC,Changeable"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2045,105 +2231,473 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="59.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="18" t="s">
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str" cm="1">
+      <c r="A3" s="13" t="str" cm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
       </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L16" t="str" cm="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="str" cm="1">
         <f t="array" ref="L16">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
       </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2155,293 +2709,852 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA571890-E7B3-444C-80C3-9C6B747497B2}">
-  <dimension ref="A1:AF7"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-    </row>
-    <row r="2" spans="1:32" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="P2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="I3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="10" t="s">
+      <c r="W3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="X3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="Y3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="Z3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="AA3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="W3" s="9" t="s">
+      <c r="AB3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="AC3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AD3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="AE3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" t="str" cm="1">
+      <c r="A4" s="13" t="str" cm="1">
         <f t="array" ref="A4">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="UART-USART","")</f>
         <v/>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="P4" t="s">
-        <v>78</v>
-      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>43</v>
-      </c>
-      <c r="J5">
-        <v>65</v>
-      </c>
-      <c r="K5">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N5" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V5" t="s">
-        <v>95</v>
-      </c>
-      <c r="W5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="H7" s="8"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AF2" xr:uid="{DA571890-E7B3-444C-80C3-9C6B747497B2}">

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78373B3F-471F-4078-B1F2-681578ABC56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062794FE-A947-4E12-898A-6AB718493391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -503,14 +503,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -520,14 +520,6 @@
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thick">
@@ -541,6 +533,14 @@
           <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}" name="Table3" displayName="Table3" ref="A2:D17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 2" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}" name="Table3" displayName="Table3" ref="A2:D17" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" headerRowCellStyle="Heading 2" dataCellStyle="Output">
   <autoFilter ref="A2:D17" xr:uid="{A7E025C4-5B09-4962-A649-7F0F7097458B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D16">
     <sortCondition ref="A3:A16"/>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}" name="Table8" displayName="Table8" ref="A2:O24" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 2" dataCellStyle="Output">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}" name="Table8" displayName="Table8" ref="A2:O24" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2" dataCellStyle="Output">
   <autoFilter ref="A2:O24" xr:uid="{55511324-B4C4-46C0-B672-1D026B401421}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5C5A58B1-63D2-4536-8983-EE8382A90749}" name="Pin's num" dataCellStyle="Output"/>
@@ -865,7 +865,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -902,12 +902,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -924,230 +924,230 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>9</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>22</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>35</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>36</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>37</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>42</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>43</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>44</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1223,7 +1223,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1248,257 +1248,257 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" cm="1">
+      <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C10">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output","")</f>
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="11" t="str">
         <v>RA3</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="11" t="str">
         <v>Van</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>25</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="11" t="str">
         <v>RE0</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="11" t="str">
         <v>Relay</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>35</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="11" t="str">
         <v>RC1</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="11" t="str">
         <v>DS1</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>36</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="11" t="str">
         <v>RC2</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="11" t="str">
         <v>SHCP</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <v>1000000</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="11" t="str">
         <v>RC3</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="11" t="str">
         <v>STCP</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>1000000</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>42</v>
       </c>
-      <c r="B8" s="13" t="str">
+      <c r="B8" s="11" t="str">
         <v>RC4</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="11" t="str">
         <v>LED1</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>43</v>
       </c>
-      <c r="B9" s="13" t="str">
+      <c r="B9" s="11" t="str">
         <v>RC5</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="11" t="str">
         <v>LED2</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>44</v>
       </c>
-      <c r="B10" s="13" t="str">
+      <c r="B10" s="11" t="str">
         <v>RC6</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="11" t="str">
         <v>LED3</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:F9" xr:uid="{8D753BDA-7C29-4ECB-9A7C-E1BC8A53D622}"/>
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,131 +1569,131 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" cm="1">
+      <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C7">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="11" t="str">
         <v>RD4</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="11" t="str">
         <v>NUT1</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="str">
+      <c r="B4" s="11" t="str">
         <v>RD5</v>
       </c>
-      <c r="C4" s="13" t="str">
+      <c r="C4" s="11" t="str">
         <v>NUT2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="str">
+      <c r="B5" s="11" t="str">
         <v>RD6</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="11" t="str">
         <v>NUT3</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="str">
+      <c r="B6" s="11" t="str">
         <v>RD7</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="11" t="str">
         <v>NUT4</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>8</v>
       </c>
-      <c r="B7" s="13" t="str">
+      <c r="B7" s="11" t="str">
         <v>RB0</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="11" t="str">
         <v>zero</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
@@ -1892,7 +1892,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:XFD1048576"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,265 +1946,265 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" cm="1">
+      <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="PWM","")</f>
         <v>9</v>
       </c>
-      <c r="B3" s="13" t="str">
+      <c r="B3" s="11" t="str">
         <v>RB1</v>
       </c>
-      <c r="C3" s="13" t="str">
+      <c r="C3" s="11" t="str">
         <v>PWM</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2320,384 +2320,384 @@
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="str" cm="1">
+      <c r="A3" s="11" t="str" cm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13" t="str" cm="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11" t="str" cm="1">
         <f t="array" ref="L16">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2714,7 +2714,7 @@
   </sheetPr>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2754,12 +2754,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2811,13 +2811,13 @@
       <c r="G2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="6" t="s">
         <v>52</v>
       </c>
@@ -2848,17 +2848,17 @@
       <c r="V2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
       <c r="AF2" s="6" t="s">
         <v>75</v>
       </c>
@@ -2908,653 +2908,653 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="str" cm="1">
+      <c r="A4" s="11" t="str" cm="1">
         <f t="array" ref="A4">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="UART-USART","")</f>
         <v/>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AF2" xr:uid="{DA571890-E7B3-444C-80C3-9C6B747497B2}">

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062794FE-A947-4E12-898A-6AB718493391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D53B2-FFCF-417A-9AC9-527CA1E7B7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoàng Anh Trần</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{127ECF9A-B752-4897-A18A-4BB11998AB6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Hoàng Anh Trần:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hardware pwm =  using peripherals </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -66,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
   <si>
     <t>Pin's Name</t>
   </si>
@@ -345,13 +379,22 @@
   </si>
   <si>
     <t>LOW</t>
+  </si>
+  <si>
+    <t>#NC: No care, No Comment, No Clue, Not Calculated</t>
+  </si>
+  <si>
+    <t>2 Bit</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +448,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +481,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -484,15 +552,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -511,11 +589,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
@@ -865,8 +946,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,10 +1287,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,12 +1303,12 @@
     <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1247,7 +1328,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C10">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output","")</f>
         <v>22</v>
@@ -1261,10 +1342,21 @@
       <c r="D3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>25</v>
       </c>
@@ -1284,7 +1376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>35</v>
       </c>
@@ -1304,7 +1396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>36</v>
       </c>
@@ -1324,7 +1416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>37</v>
       </c>
@@ -1344,7 +1436,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>42</v>
       </c>
@@ -1364,7 +1456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>43</v>
       </c>
@@ -1384,7 +1476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>44</v>
       </c>
@@ -1404,7 +1496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1412,7 +1504,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1420,7 +1512,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1428,7 +1520,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1436,7 +1528,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1444,7 +1536,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1503,10 +1595,10 @@
   </sheetData>
   <autoFilter ref="F1:F9" xr:uid="{8D753BDA-7C29-4ECB-9A7C-E1BC8A53D622}"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E2 E4:E1048576" xr:uid="{12CB44A5-E0AA-4D33-B439-C9FC398BAA13}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E1:E1048576" xr:uid="{12CB44A5-E0AA-4D33-B439-C9FC398BAA13}">
       <formula1>"High, Low, #NC, Changeable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F2 F4:F1048576" xr:uid="{5F79AC19-DEA5-416A-9166-AFD6574FBE50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="F1:F1048576" xr:uid="{5F79AC19-DEA5-416A-9166-AFD6574FBE50}">
       <formula1>"Open drain, Pull-up, Pull-down,#NC, Changable"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="A1:D2 A11:D1048576 A3:C10 D4:D10" xr:uid="{1C84FC7B-A820-4CA5-8C24-F5DC41A2D845}"/>
@@ -1520,10 +1612,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,7 +1629,7 @@
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1637,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1567,8 +1659,11 @@
       <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C7">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
         <v>2</v>
@@ -1592,7 +1687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1615,7 +1710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1638,7 +1733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1663,7 +1758,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>8</v>
       </c>
@@ -1686,7 +1781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1695,49 +1790,49 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>IF(A9="","")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f t="shared" ref="D10:D36" si="0">IF(A10="","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1885,14 +1980,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFB66BB-D7E4-458E-871F-08E6199DD7F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFB66BB-D7E4-458E-871F-08E6199DD7F5}">
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +2003,7 @@
     <col min="9" max="9" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +2011,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1945,7 +2040,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="PWM","")</f>
         <v>9</v>
@@ -1963,19 +2058,19 @@
         <v>45</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1985,8 +2080,11 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -1997,7 +2095,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2008,7 +2106,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2019,7 +2117,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2030,7 +2128,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2041,7 +2139,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2052,7 +2150,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2063,7 +2161,7 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2074,7 +2172,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2085,7 +2183,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2096,7 +2194,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2107,7 +2205,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2223,6 +2321,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2231,10 +2330,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2256,7 +2355,7 @@
     <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
@@ -2271,7 +2370,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>42</v>
       </c>
@@ -2319,7 +2418,7 @@
       </c>
       <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="str" cm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
@@ -2339,7 +2438,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2355,8 +2454,11 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2373,7 +2475,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2390,7 +2492,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2407,7 +2509,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2424,7 +2526,7 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2441,7 +2543,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -2458,7 +2560,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -2475,7 +2577,7 @@
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -2492,7 +2594,7 @@
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -2509,7 +2611,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2526,7 +2628,7 @@
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2543,7 +2645,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -2712,10 +2814,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,7 +2855,7 @@
     <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
@@ -2789,7 +2891,7 @@
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
     </row>
-    <row r="2" spans="1:32" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -2863,7 +2965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="5" t="s">
         <v>77</v>
       </c>
@@ -2906,8 +3008,11 @@
       <c r="AE3" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AH3" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="str" cm="1">
         <f t="array" ref="A4">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="UART-USART","")</f>
         <v/>
@@ -2944,7 +3049,7 @@
       <c r="AE4" s="11"/>
       <c r="AF4" s="11"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2978,7 +3083,7 @@
       <c r="AE5" s="11"/>
       <c r="AF5" s="11"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -3012,7 +3117,7 @@
       <c r="AE6" s="11"/>
       <c r="AF6" s="11"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -3046,7 +3151,7 @@
       <c r="AE7" s="11"/>
       <c r="AF7" s="11"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -3080,7 +3185,7 @@
       <c r="AE8" s="11"/>
       <c r="AF8" s="11"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3114,7 +3219,7 @@
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -3148,7 +3253,7 @@
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3182,7 +3287,7 @@
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -3216,7 +3321,7 @@
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3250,7 +3355,7 @@
       <c r="AE13" s="11"/>
       <c r="AF13" s="11"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -3284,7 +3389,7 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3318,7 +3423,7 @@
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166D53B2-FFCF-417A-9AC9-527CA1E7B7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3176850D-84BA-45E2-B2E3-46AF49671902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t>Pin's Name</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>&lt; 60</t>
+  </si>
+  <si>
+    <t>Triger Edge</t>
+  </si>
+  <si>
+    <t>Falling</t>
   </si>
 </sst>
 </file>
@@ -583,14 +592,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -947,7 +956,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,12 +992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1348,13 +1357,13 @@
       <c r="F3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
@@ -1612,10 +1621,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,9 +1636,10 @@
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
@@ -1637,7 +1647,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1659,11 +1669,12 @@
       <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" cm="1">
         <f t="array" ref="A3:C7">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
         <v>2</v>
@@ -1686,8 +1697,11 @@
       <c r="G3" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1709,8 +1723,11 @@
       <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1732,8 +1749,11 @@
       <c r="G5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>NUT4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>45</v>
@@ -1755,10 +1775,12 @@
       <c r="G6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>8</v>
       </c>
@@ -1772,7 +1794,7 @@
         <v>84</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>45</v>
@@ -1780,8 +1802,11 @@
       <c r="G7" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1789,50 +1814,54 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>IF(A9="","")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f t="shared" ref="D10:D36" si="0">IF(A10="","")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1960,19 +1989,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{E79A97F8-9BB3-49A8-9A83-B42ED95C8455}"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0463820B-1CC9-4AD8-8557-D75A2ECB0B44}">
       <formula1>"Pin's feature,GPIO Digital input,GPIO Digital Output,PWM,ADC,#NC, Pin's feature, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I2 H3:H6" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
       <formula1>"Foating, Pull-up,Pull-down, Changeable,#NC"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17 F19:F1048576 H16" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17 F19:F1048576" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
       <formula1>"Low, High, #NC,Changeable"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="D1:D1048576" xr:uid="{61EFA305-4B4E-454F-B683-01550BF32ED0}">
       <formula1>"Polling, Interrupt,#NC,Changable"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="H1:H2 H7:H1048576" xr:uid="{1260AFB8-0754-436E-A73D-C2FF6D43C4C9}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2080,7 +2110,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2332,7 +2362,7 @@
   </sheetPr>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
@@ -2454,7 +2484,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2856,12 +2886,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2913,13 +2943,13 @@
       <c r="G2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="6" t="s">
         <v>52</v>
       </c>
@@ -2950,17 +2980,17 @@
       <c r="V2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
       <c r="AF2" s="6" t="s">
         <v>75</v>
       </c>
@@ -3008,7 +3038,7 @@
       <c r="AE3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="12" t="s">
         <v>93</v>
       </c>
     </row>

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcx\Documents\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3176850D-84BA-45E2-B2E3-46AF49671902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE95F4E-0684-48F6-9914-BB7A4ED5DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
   <si>
     <t>Pin's Name</t>
   </si>
@@ -397,22 +397,17 @@
   </si>
   <si>
     <t>Falling</t>
+  </si>
+  <si>
+    <t>Software Contact Flickering Handle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -573,31 +568,30 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -992,258 +986,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>22</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>25</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>35</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>36</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>37</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>43</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>44</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1299,7 +1293,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,293 +1307,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" cm="1">
+      <c r="A3" s="10" cm="1">
         <f t="array" ref="A3:C10">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Output","")</f>
         <v>22</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <v>RA3</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <v>Van</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>25</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="10" t="str">
         <v>RE0</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <v>Relay</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>35</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="10" t="str">
         <v>RC1</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="10" t="str">
         <v>DS1</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>36</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <v>RC2</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="10" t="str">
         <v>SHCP</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>1000000</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>37</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="10" t="str">
         <v>RC3</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="10" t="str">
         <v>STCP</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>1000000</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>42</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="10" t="str">
         <v>RC4</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="10" t="str">
         <v>LED1</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>43</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="10" t="str">
         <v>RC5</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="10" t="str">
         <v>LED2</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>44</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="10" t="str">
         <v>RC6</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="10" t="str">
         <v>LED3</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:F9" xr:uid="{8D753BDA-7C29-4ECB-9A7C-E1BC8A53D622}"/>
@@ -1624,23 +1618,24 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1"/>
@@ -1648,173 +1643,188 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" cm="1">
+      <c r="A3" s="10" cm="1">
         <f t="array" ref="A3:C7">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="GPIO Digital Input","")</f>
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <v>RD4</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <v>NUT1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="str">
+      <c r="B4" s="10" t="str">
         <v>RD5</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="10" t="str">
         <v>NUT2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="I4" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="str">
+      <c r="B5" s="10" t="str">
         <v>RD6</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="10" t="str">
         <v>NUT3</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="I5" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="10" t="str">
         <v>RD7</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="10" t="str">
         <v>NUT4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="10" t="str">
         <v>RB0</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="10" t="str">
         <v>zero</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>98</v>
       </c>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
@@ -1845,7 +1855,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1989,11 +1999,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{E79A97F8-9BB3-49A8-9A83-B42ED95C8455}"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0463820B-1CC9-4AD8-8557-D75A2ECB0B44}">
       <formula1>"Pin's feature,GPIO Digital input,GPIO Digital Output,PWM,ADC,#NC, Pin's feature, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I2 H3:H6" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 H3:H6" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
       <formula1>"Foating, Pull-up,Pull-down, Changeable,#NC"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17 F19:F1048576" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
@@ -2003,6 +2013,9 @@
       <formula1>"Polling, Interrupt,#NC,Changable"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="H1:H2 H7:H1048576" xr:uid="{1260AFB8-0754-436E-A73D-C2FF6D43C4C9}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I1:I1048576" xr:uid="{C6CC32BC-841F-46CA-BE12-65E78AE3C3C7}">
+      <formula1>"Y,N,#NC"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2034,305 +2047,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" cm="1">
+      <c r="A3" s="10" cm="1">
         <f t="array" ref="A3:C3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="PWM","")</f>
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="10" t="str">
         <v>RB1</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="10" t="str">
         <v>PWM</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="K4" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -2386,450 +2399,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="9"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="str" cm="1">
+      <c r="A3" s="10" t="str" cm="1">
         <f t="array" ref="A3">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="R4" s="12" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="R4" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11" t="str" cm="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="str" cm="1">
         <f t="array" ref="L16">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="ADC","")</f>
         <v/>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2886,810 +2899,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
     </row>
     <row r="2" spans="1:34" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="6" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="6" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="str" cm="1">
+      <c r="A4" s="10" t="str" cm="1">
         <f t="array" ref="A4">_xlfn._xlws.FILTER('GPIO DESCRIPTION'!A3:C17,'GPIO DESCRIPTION'!D3:D17="UART-USART","")</f>
         <v/>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AF2" xr:uid="{DA571890-E7B3-444C-80C3-9C6B747497B2}">

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcx\Documents\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE95F4E-0684-48F6-9914-BB7A4ED5DAD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1B846-24F6-4579-8A95-706C95833FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
   <si>
     <t>Pin's Name</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Baud rate</t>
   </si>
   <si>
-    <t>Changeable</t>
-  </si>
-  <si>
     <t>DMA</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>&lt; 60</t>
-  </si>
-  <si>
     <t>Triger Edge</t>
   </si>
   <si>
@@ -400,6 +394,12 @@
   </si>
   <si>
     <t>Software Contact Flickering Handle</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; 50</t>
   </si>
 </sst>
 </file>
@@ -987,7 +987,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1328,7 +1328,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1343,16 +1343,16 @@
         <v>Van</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1370,10 +1370,10 @@
         <v>Relay</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>45</v>
@@ -1393,7 +1393,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>45</v>
@@ -1413,7 +1413,7 @@
         <v>1000000</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>45</v>
@@ -1433,7 +1433,7 @@
         <v>1000000</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>45</v>
@@ -1453,7 +1453,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>45</v>
@@ -1473,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>45</v>
@@ -1493,7 +1493,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>45</v>
@@ -1617,8 +1617,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,10 +1665,10 @@
         <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>45</v>
@@ -1698,7 +1698,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>45</v>
@@ -1727,7 +1727,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>45</v>
@@ -1756,7 +1756,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>45</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>45</v>
@@ -1785,7 +1785,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>zero</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>45</v>
@@ -1811,9 +1811,11 @@
         <v>45</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
@@ -1856,7 +1858,7 @@
         <v/>
       </c>
       <c r="M13" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2006,7 +2008,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 H3:H6" xr:uid="{FF7B5517-8322-4A29-A521-266339869E82}">
       <formula1>"Foating, Pull-up,Pull-down, Changeable,#NC"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F17 F19:F1048576" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F1048576 F1:F17" xr:uid="{7C12DC85-D587-4CC3-AACE-0FA541CAACB3}">
       <formula1>"Low, High, #NC,Changeable"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="D1:D1048576" xr:uid="{61EFA305-4B4E-454F-B683-01550BF32ED0}">
@@ -2065,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>31</v>
@@ -2080,7 +2082,7 @@
         <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2095,22 +2097,22 @@
         <v>PWM</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2124,7 +2126,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="K4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2424,10 +2426,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
@@ -2445,7 +2447,7 @@
         <v>39</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>40</v>
@@ -2454,7 +2456,7 @@
         <v>41</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>31</v>
@@ -2498,7 +2500,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="R4" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2957,7 +2959,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -2976,7 +2978,7 @@
         <v>55</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>56</v>
@@ -3005,24 +3007,24 @@
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>62</v>
@@ -3052,7 +3054,7 @@
         <v>70</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">

--- a/Doc/GIPO_Description.xlsx
+++ b/Doc/GIPO_Description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcx\Documents\SCHwash\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SCHwash\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1B846-24F6-4579-8A95-706C95833FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F6B4ED-F1A2-4369-96BC-26AAC67EEE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO DESCRIPTION" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>Pin's num</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin's feature </t>
-  </si>
-  <si>
     <t>GPIO Digital Input</t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t>Interrupt</t>
   </si>
   <si>
-    <t>GPIO Description - SCH wash</t>
-  </si>
-  <si>
     <t>Trigger Signal software/event signal/hardware</t>
   </si>
   <si>
@@ -400,6 +394,12 @@
   </si>
   <si>
     <t xml:space="preserve"> &gt; 50</t>
+  </si>
+  <si>
+    <t>Feature and GPIO Description - SCH wash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature </t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
     <tableColumn id="1" xr3:uid="{A81F9EE8-F660-4697-9996-3B100F92A70B}" name="Pin's num" dataCellStyle="Output"/>
     <tableColumn id="2" xr3:uid="{1CBDFF3B-F9A2-4AAE-8B7B-8F65F6143DFA}" name="Pin's Name" dataCellStyle="Output"/>
     <tableColumn id="3" xr3:uid="{F70C26DC-50B0-4E85-BFA0-737199EC209E}" name="Pin's user name" dataCellStyle="Output"/>
-    <tableColumn id="4" xr3:uid="{D15DCE28-19C1-4E3A-878D-56B96C75F678}" name="Pin's feature " dataCellStyle="Output"/>
+    <tableColumn id="4" xr3:uid="{D15DCE28-19C1-4E3A-878D-56B96C75F678}" name="Feature " dataCellStyle="Output"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,8 +949,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +987,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,12 +1251,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0D1BBB56-38B0-43D1-8382-6EEBA2D23AF6}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="D1:D1048576" xr:uid="{0D1BBB56-38B0-43D1-8382-6EEBA2D23AF6}">
       <formula1>"Pin's feature,GPIO Digital Input,GPIO Digital Output,PWM,ADC,#NC, Pin's feature, Timer, UART-USART, SPI, I2C, DAC, Input capture,Output compare "</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2" listDataValidation="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1325,10 +1328,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1343,16 +1346,16 @@
         <v>Van</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1370,13 +1373,13 @@
         <v>Relay</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1390,13 +1393,13 @@
         <v>DS1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1413,10 +1416,10 @@
         <v>1000000</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1433,10 +1436,10 @@
         <v>1000000</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1450,13 +1453,13 @@
         <v>LED1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1470,13 +1473,13 @@
         <v>LED2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1490,13 +1493,13 @@
         <v>LED3</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1617,7 +1620,7 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1653,22 +1656,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="H2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1683,22 +1686,22 @@
         <v>NUT1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1712,22 +1715,22 @@
         <v>NUT2</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1741,22 +1744,22 @@
         <v>NUT3</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1770,22 +1773,22 @@
         <v>NUT4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1799,22 +1802,22 @@
         <v>zero</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1858,7 +1861,7 @@
         <v/>
       </c>
       <c r="M13" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2067,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>31</v>
@@ -2076,13 +2079,13 @@
         <v>33</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2097,22 +2100,22 @@
         <v>PWM</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,7 +2129,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="K4" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2426,10 +2429,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>33</v>
@@ -2447,7 +2450,7 @@
         <v>39</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>40</v>
@@ -2456,7 +2459,7 @@
         <v>41</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>31</v>
@@ -2500,7 +2503,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="R4" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -2862,7 +2865,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="AH3" sqref="AH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2902,7 +2905,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2947,56 +2950,56 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="14" t="s">
         <v>60</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
@@ -3007,54 +3010,54 @@
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="W3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="AH3" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
